--- a/premise/data/additional_inventories/lci-PV-CIGS-eol.xlsx
+++ b/premise/data/additional_inventories/lci-PV-CIGS-eol.xlsx
@@ -658,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E7FF4E-BD49-4CEA-82DE-1804B738993B}">
   <dimension ref="A1:Q82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="63" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
